--- a/publipostage/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT02599584</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Improvement of Team Performance With a Pre-critical Staff Within the Team Prior to Admission of Critical Simulated Patient in High Fidelity Simulation Session for Anesthesiology Resident During Their Education Curriculum</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Simstaf&amp;perf</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02470195</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Anesthesiology Education Implementation by Procedural Simulation Workshop for Difficult Airway Management: a Controlled Interregional French Study</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>PROSIDIAIR</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02470130</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Effect of a Debriefing Conversational Relaxation on Memorization of Critical Key Points in Resident High Fidelity Simulation Education Program</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>RELAXSIMHF</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02926599</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>High Fidelity Simulation Performance After a Potential Optimization Training for Anesthesiologist Resident: a Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>TOP</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,32 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT03253770</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Use of a Hand-held Digital Cognitive Aid in Simulated Cardiac Arrest.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SIMMAX2</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -673,27 +703,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT04352959</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>COVID-19: Nasal and Salivary Detection of the SARS-CoV-2 Virus After Antiviral Mouthrinses: Double-blind, Randomized, Placebo-controlled Clinical Study</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>BBCovid</t>
         </is>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -701,6 +733,9 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -710,34 +745,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT04141124</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Effects of Relaxing Breathing Combined With Biofeedback on the Performance and Stress of Residents During a High-fidelity Simulation Session.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>RETROSIMU</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -747,28 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT05390879</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT05136586</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Influence of Meditation on Stress and Rumination Following Objective Structured Clinical Examination (OSCE)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effects of Two Stress Management Procedures on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students : Relaxing Breathing Combined With Biofeedback or Meditative Stimulation : ECOSTRESS Study</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ECOSTRESS</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -780,32 +829,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT05136586</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT05390879</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Effects of Two Stress Management Procedures on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students : Relaxing Breathing Combined With Biofeedback or Meditative Stimulation : ECOSTRESS Study</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ECOSTRESS</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+          <t>Influence of Meditation on Stress and Rumination Following Objective Structured Clinical Examination (OSCE)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -817,32 +867,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT05628519</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Captain Sonar Impact on Trauma Patient Management</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>CAST2</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -854,32 +909,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT05619081</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT05393219</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Recovery Napping Protocol for Anesthesiologist Performance</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>R-NAP</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+          <t>Effects of Preventive Physiological and Psychological Interventions on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students: Cardiac Biofeedback, Mindfulness, or Inner Resources Mobilization</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -891,28 +947,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT05393219</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT05619081</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Effects of Preventive Physiological and Psychological Interventions on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students: Cardiac Biofeedback, Mindfulness, or Inner Resources Mobilization</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recovery Napping Protocol for Anesthesiologist Performance</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>R-NAP</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -924,28 +989,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT05380076</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Effects of Mindfulness, Mobilization of Inner Resources, or Cardiac Biofeedback on Psychophysiological Anticipatory Stress Before OSCE of Medical Students</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +903,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -900,6 +950,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +993,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -980,6 +1040,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1017,6 +1082,11 @@
       </c>
       <c r="J14" t="b">
         <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
